--- a/RQ2 FUMA findings/combined BHV Findings.xlsx
+++ b/RQ2 FUMA findings/combined BHV Findings.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/University/MSc Psychological Research Methods/PSYM210 Research Apprenticeship/ADNI Data/RQ2 Findings/FUMA HV gene enrichment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/GitHub/sex_differences_CSF_proteins_brain_structure/RQ2 FUMA findings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8446C372-90C9-8145-9A6D-E201F03007B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE35BA3-5BE6-854F-A730-81F3D7C11719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{E08E626B-03BF-2941-B5AA-56D37278D16D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{E08E626B-03BF-2941-B5AA-56D37278D16D}"/>
   </bookViews>
   <sheets>
-    <sheet name="GTEx 30 general tissue types" sheetId="1" r:id="rId1"/>
+    <sheet name="GTEx 30 general tissue types" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="GTEx 54 Tissue Types" sheetId="2" r:id="rId2"/>
-    <sheet name="Gene Expression (30 tissues)" sheetId="3" r:id="rId3"/>
+    <sheet name="Gene Expression (30 tissues)" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Gene Expression (54 tissues)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
